--- a/biology/Botanique/Bertiera/Bertiera.xlsx
+++ b/biology/Botanique/Bertiera/Bertiera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera est un genre de plantes à fleurs de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 octobre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 octobre 2017) :
 Bertiera adamsii (Hepper) N.Hallé
 Bertiera aequatorialis N.Hallé
 Bertiera aethiopica Hiern
@@ -596,7 +612,7 @@
 Bertiera troupinii N.Hallé
 Bertiera viburnoides (Standl.) J.H.Kirkbr.
 Bertiera zaluzania Comm. ex C.F.Gaertn.
-Selon NCBI  (17 octobre 2017)[3] :
+Selon NCBI  (17 octobre 2017) :
 Bertiera aethiopica
 Bertiera angustifolia
 Bertiera bicarpellata
@@ -617,7 +633,7 @@
 Bertiera rufa
 Bertiera subsessilis
 Bertiera zaluzania
-Selon The Plant List            (17 octobre 2017)[4] :
+Selon The Plant List            (17 octobre 2017) :
 Bertiera adamsii (Hepper) N.Hallé
 Bertiera aequatorialis N.Hallé
 Bertiera aethiopica Hiern
@@ -675,7 +691,7 @@
 Bertiera troupinii N.Hallé
 Bertiera viburnoides (Standl.) J.H.Kirkbr.
 Bertiera zaluzania Comm. ex C.F.Gaertn.
-Selon Tropicos                                           (17 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Bertiera adamsii (Hepper) N. Hallé
 Bertiera aequaliramosa Steyerm.
 Bertiera aequatorialis N. Hallé
